--- a/ZTE patametr LTE/v8_v1_BLSDR_fdd_radio_L900_1800_2600_17Nov2020.xlsx
+++ b/ZTE patametr LTE/v8_v1_BLSDR_fdd_radio_L900_1800_2600_17Nov2020.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Myronchuk\ZTE\Create LTE 900\Парметры которые выслали с запада\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmyronchuk\PycharmProjects\ZTE_Create_LTE\ZTE patametr LTE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12300" tabRatio="865" firstSheet="15" activeTab="18"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28920" windowHeight="12300" tabRatio="865" firstSheet="9" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="TemplateInfo" sheetId="1" r:id="rId1"/>
@@ -7618,12 +7618,6 @@
     <t>28</t>
   </si>
   <si>
-    <t>10KM</t>
-  </si>
-  <si>
-    <t>22KM</t>
-  </si>
-  <si>
     <t>39KM</t>
   </si>
   <si>
@@ -8062,6 +8056,12 @@
   </si>
   <si>
     <t>def</t>
+  </si>
+  <si>
+    <t>22KM / L09</t>
+  </si>
+  <si>
+    <t>10KM / L18</t>
   </si>
 </sst>
 </file>
@@ -8474,7 +8474,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9013,6 +9013,36 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="27" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="2" xfId="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="2" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="2" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Normal 2" xfId="1"/>
@@ -9334,13 +9364,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -9348,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -9356,7 +9386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -9364,7 +9394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -9372,7 +9402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -9380,7 +9410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -9407,19 +9437,19 @@
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="114" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="114" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" style="114" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="114" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="114" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="114" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" customWidth="1"/>
     <col min="7" max="7" width="20" customWidth="1"/>
     <col min="8" max="8" width="20" style="114" customWidth="1"/>
-    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" customWidth="1"/>
     <col min="10" max="10" width="16" customWidth="1"/>
-    <col min="11" max="12" width="5.85546875" customWidth="1"/>
+    <col min="11" max="12" width="5.88671875" customWidth="1"/>
     <col min="13" max="17" width="20" customWidth="1"/>
     <col min="18" max="18" width="20" style="12" customWidth="1"/>
     <col min="19" max="25" width="20" customWidth="1"/>
@@ -9427,7 +9457,7 @@
     <col min="27" max="31" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>212</v>
       </c>
@@ -9522,7 +9552,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>217</v>
       </c>
@@ -9617,7 +9647,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>222</v>
       </c>
@@ -9712,7 +9742,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>246</v>
       </c>
@@ -9807,7 +9837,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>229</v>
       </c>
@@ -9902,7 +9932,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>1429</v>
       </c>
@@ -9995,7 +10025,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>1429</v>
       </c>
@@ -10088,7 +10118,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10178,7 +10208,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10268,7 +10298,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10358,7 +10388,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10448,7 +10478,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10538,7 +10568,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10628,7 +10658,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10718,7 +10748,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10808,7 +10838,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10898,7 +10928,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="73" t="s">
         <v>1455</v>
       </c>
@@ -10988,7 +11018,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:31" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="92" t="s">
         <v>1455</v>
       </c>
@@ -11077,7 +11107,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="139" t="s">
         <v>1430</v>
       </c>
@@ -11160,7 +11190,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="139" t="s">
         <v>1430</v>
       </c>
@@ -11243,7 +11273,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="139" t="s">
         <v>1430</v>
       </c>
@@ -11326,7 +11356,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="139" t="s">
         <v>1430</v>
       </c>
@@ -11427,15 +11457,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="19" customWidth="1"/>
     <col min="3" max="33" width="20" style="19" customWidth="1"/>
     <col min="34" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
@@ -11536,7 +11566,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -11637,7 +11667,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -11738,7 +11768,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -11839,7 +11869,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -11940,7 +11970,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="73" t="s">
         <v>1455</v>
       </c>
@@ -11988,7 +12018,7 @@
         <v>2161</v>
       </c>
       <c r="Q6" s="157" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="R6" s="32" t="s">
         <v>2161</v>
@@ -12039,7 +12069,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>1429</v>
       </c>
@@ -12087,7 +12117,7 @@
         <v>2161</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="R7" s="32" t="s">
         <v>2161</v>
@@ -12138,7 +12168,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>1429</v>
       </c>
@@ -12186,7 +12216,7 @@
         <v>2161</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="R8" s="32" t="s">
         <v>2161</v>
@@ -12237,30 +12267,30 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="9" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>1429</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>2523</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>2524</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2525</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>250</v>
@@ -12338,30 +12368,30 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="10" spans="1:33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>1455</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>2000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>250</v>
@@ -12382,7 +12412,7 @@
         <v>249</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>1404</v>
@@ -12439,7 +12469,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="O11" s="70"/>
     </row>
   </sheetData>
@@ -12458,17 +12488,17 @@
       <pane xSplit="6" ySplit="5" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="70" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" style="19" customWidth="1"/>
-    <col min="3" max="6" width="10.5703125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="19" customWidth="1"/>
-    <col min="9" max="14" width="10.140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" style="19" customWidth="1"/>
+    <col min="3" max="6" width="10.5546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="19" customWidth="1"/>
+    <col min="9" max="14" width="10.109375" style="19" customWidth="1"/>
     <col min="15" max="15" width="95" style="19" customWidth="1"/>
     <col min="16" max="17" width="20" style="19" customWidth="1"/>
     <col min="18" max="18" width="34" style="19" customWidth="1"/>
@@ -12476,7 +12506,7 @@
     <col min="123" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:122" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:122" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
@@ -12844,7 +12874,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="2" spans="1:122" s="62" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:122" s="62" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>217</v>
       </c>
@@ -13212,7 +13242,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="3" spans="1:122" s="62" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:122" s="62" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>222</v>
       </c>
@@ -13580,7 +13610,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="4" spans="1:122" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:122" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -13948,7 +13978,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="5" spans="1:122" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:122" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -14316,7 +14346,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:122" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:122" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1429</v>
       </c>
@@ -14336,7 +14366,7 @@
         <v>249</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1964</v>
@@ -14684,7 +14714,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="7" spans="1:122" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:122" x14ac:dyDescent="0.3">
       <c r="A7" s="69" t="s">
         <v>1455</v>
       </c>
@@ -15049,7 +15079,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="8" spans="1:122" ht="86.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:122" ht="83.4" x14ac:dyDescent="0.3">
       <c r="A8" s="69" t="s">
         <v>1455</v>
       </c>
@@ -15099,7 +15129,7 @@
         <v>1456</v>
       </c>
       <c r="R8" s="183" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="S8" s="9" t="s">
         <v>2005</v>
@@ -15428,22 +15458,22 @@
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="U6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA12" sqref="AA12"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" style="19" customWidth="1"/>
-    <col min="3" max="5" width="11.7109375" style="19" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="38" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="25.5703125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" style="19" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="19" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20" style="36" customWidth="1"/>
     <col min="12" max="13" width="20" style="37" customWidth="1"/>
     <col min="14" max="14" width="20" style="36" customWidth="1"/>
@@ -15451,15 +15481,15 @@
     <col min="16" max="19" width="20" style="36" customWidth="1"/>
     <col min="20" max="20" width="20" style="37" customWidth="1"/>
     <col min="21" max="22" width="20" style="36" customWidth="1"/>
-    <col min="23" max="23" width="24.42578125" style="19" customWidth="1"/>
-    <col min="24" max="24" width="34.7109375" style="19" customWidth="1"/>
-    <col min="25" max="25" width="35.42578125" style="19" customWidth="1"/>
-    <col min="26" max="26" width="27.5703125" style="70" customWidth="1"/>
-    <col min="27" max="27" width="20.140625" style="70" customWidth="1"/>
+    <col min="23" max="23" width="24.44140625" style="19" customWidth="1"/>
+    <col min="24" max="24" width="34.6640625" style="19" customWidth="1"/>
+    <col min="25" max="25" width="35.44140625" style="19" customWidth="1"/>
+    <col min="26" max="26" width="27.5546875" style="70" customWidth="1"/>
+    <col min="27" max="27" width="20.109375" style="70" customWidth="1"/>
     <col min="28" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
@@ -15539,10 +15569,10 @@
         <v>2416</v>
       </c>
       <c r="AA1" s="153" t="s">
-        <v>2526</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2524</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -15622,10 +15652,10 @@
         <v>2417</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>2527</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -15705,10 +15735,10 @@
         <v>2418</v>
       </c>
       <c r="AA3" s="155" t="s">
-        <v>2528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -15788,10 +15818,10 @@
         <v>2419</v>
       </c>
       <c r="AA4" s="156" t="s">
-        <v>2529</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -15874,7 +15904,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>1430</v>
       </c>
@@ -15957,7 +15987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>1430</v>
       </c>
@@ -16040,36 +16070,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="57" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="57" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="94" t="s">
         <v>1430</v>
       </c>
       <c r="B8" s="94" t="s">
+        <v>2532</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D8" s="94" t="s">
         <v>2534</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="E8" s="94" t="s">
         <v>2535</v>
       </c>
-      <c r="D8" s="94" t="s">
+      <c r="F8" s="94" t="s">
         <v>2536</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="G8" s="94" t="s">
         <v>2537</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="H8" s="94" t="s">
         <v>2538</v>
       </c>
-      <c r="G8" s="94" t="s">
+      <c r="I8" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="H8" s="94" t="s">
+      <c r="J8" s="57" t="s">
         <v>2540</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>2541</v>
-      </c>
-      <c r="J8" s="57" t="s">
-        <v>2542</v>
       </c>
       <c r="K8" s="94" t="s">
         <v>250</v>
@@ -16123,7 +16153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="158" t="s">
         <v>1430</v>
       </c>
@@ -16143,16 +16173,16 @@
         <v>89600799</v>
       </c>
       <c r="G9" s="158" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="H9" s="158" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="I9" s="113">
         <v>1</v>
       </c>
       <c r="J9" s="57" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K9" s="94" t="s">
         <v>250</v>
@@ -16206,36 +16236,36 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>2543</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2544</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>2545</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>2547</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>2548</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="I10" s="113" t="s">
         <v>2550</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>2551</v>
-      </c>
-      <c r="I10" s="113" t="s">
-        <v>2552</v>
-      </c>
       <c r="J10" s="57" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="K10" s="94" t="s">
         <v>250</v>
@@ -16250,7 +16280,7 @@
         <v>251</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
       <c r="P10" s="94" t="s">
         <v>250</v>
@@ -16289,63 +16319,63 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="H11" s="68" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="J11" s="68" t="s">
+        <v>2645</v>
+      </c>
+      <c r="K11" s="181" t="s">
         <v>2647</v>
       </c>
-      <c r="K11" s="181" t="s">
-        <v>2649</v>
-      </c>
       <c r="L11" s="202" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="M11" s="202" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="N11" s="181" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="O11" s="202" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="P11" s="181" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="Q11" s="181" t="s">
+        <v>2645</v>
+      </c>
+      <c r="R11" s="181" t="s">
+        <v>2645</v>
+      </c>
+      <c r="S11" s="181" t="s">
         <v>2647</v>
       </c>
-      <c r="R11" s="181" t="s">
+      <c r="T11" s="202" t="s">
+        <v>2645</v>
+      </c>
+      <c r="U11" s="181" t="s">
+        <v>2645</v>
+      </c>
+      <c r="V11" s="181" t="s">
+        <v>2645</v>
+      </c>
+      <c r="W11" s="68" t="s">
+        <v>2645</v>
+      </c>
+      <c r="X11" s="68" t="s">
+        <v>2645</v>
+      </c>
+      <c r="Y11" s="68" t="s">
+        <v>2645</v>
+      </c>
+      <c r="Z11" s="69" t="s">
         <v>2647</v>
       </c>
-      <c r="S11" s="181" t="s">
-        <v>2649</v>
-      </c>
-      <c r="T11" s="202" t="s">
+      <c r="AA11" s="69" t="s">
         <v>2647</v>
-      </c>
-      <c r="U11" s="181" t="s">
-        <v>2647</v>
-      </c>
-      <c r="V11" s="181" t="s">
-        <v>2647</v>
-      </c>
-      <c r="W11" s="68" t="s">
-        <v>2647</v>
-      </c>
-      <c r="X11" s="68" t="s">
-        <v>2647</v>
-      </c>
-      <c r="Y11" s="68" t="s">
-        <v>2647</v>
-      </c>
-      <c r="Z11" s="69" t="s">
-        <v>2649</v>
-      </c>
-      <c r="AA11" s="69" t="s">
-        <v>2649</v>
       </c>
     </row>
   </sheetData>
@@ -16360,32 +16390,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ2" sqref="AJ2"/>
+      <selection pane="bottomLeft" activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="19" customWidth="1"/>
-    <col min="3" max="8" width="8.5703125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="19" customWidth="1"/>
+    <col min="3" max="7" width="8.5546875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="19" customWidth="1"/>
     <col min="9" max="10" width="20" style="52" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="19" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="19" customWidth="1"/>
     <col min="13" max="13" width="20" style="52" customWidth="1"/>
     <col min="14" max="14" width="20" style="37" customWidth="1"/>
     <col min="15" max="15" width="20" style="52" customWidth="1"/>
-    <col min="16" max="29" width="3.140625" style="19" customWidth="1"/>
+    <col min="16" max="29" width="3.109375" style="19" customWidth="1"/>
     <col min="30" max="30" width="20" style="52" customWidth="1"/>
-    <col min="31" max="33" width="5.42578125" style="19" customWidth="1"/>
+    <col min="31" max="33" width="5.44140625" style="19" customWidth="1"/>
     <col min="34" max="34" width="20" style="52" customWidth="1"/>
-    <col min="35" max="35" width="3.85546875" style="19" customWidth="1"/>
+    <col min="35" max="35" width="3.88671875" style="19" customWidth="1"/>
     <col min="36" max="36" width="20" style="52" customWidth="1"/>
     <col min="37" max="37" width="20" style="19" customWidth="1"/>
     <col min="38" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="62" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="62" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>212</v>
       </c>
@@ -16498,7 +16529,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -16611,7 +16642,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="62" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" s="62" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>222</v>
       </c>
@@ -16724,7 +16755,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -16837,7 +16868,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="5" spans="1:37" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -16950,233 +16981,233 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:37" s="205" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="204" t="s">
         <v>1429</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="204" t="s">
         <v>2497</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="C6" s="204" t="s">
         <v>2368</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="204" t="s">
         <v>2372</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="204" t="s">
         <v>2373</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="204" t="s">
         <v>2410</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="H6" s="35" t="s">
-        <v>2507</v>
-      </c>
-      <c r="I6" s="64" t="s">
+      <c r="H6" s="204" t="s">
+        <v>2649</v>
+      </c>
+      <c r="I6" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="J6" s="64" t="s">
-        <v>2517</v>
-      </c>
-      <c r="K6" s="35" t="s">
+      <c r="J6" s="204" t="s">
+        <v>2515</v>
+      </c>
+      <c r="K6" s="204" t="s">
         <v>259</v>
       </c>
-      <c r="L6" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="M6" s="64" t="s">
+      <c r="L6" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="M6" s="204" t="s">
         <v>270</v>
       </c>
-      <c r="N6" s="35" t="s">
+      <c r="N6" s="204" t="s">
         <v>260</v>
       </c>
-      <c r="O6" s="64" t="s">
+      <c r="O6" s="204" t="s">
         <v>381</v>
       </c>
-      <c r="P6" s="35" t="s">
+      <c r="P6" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="Q6" s="35" t="s">
+      <c r="Q6" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="R6" s="35" t="s">
+      <c r="R6" s="204" t="s">
         <v>260</v>
       </c>
-      <c r="S6" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="T6" s="35" t="s">
+      <c r="S6" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="T6" s="204" t="s">
         <v>257</v>
       </c>
-      <c r="U6" s="35" t="s">
+      <c r="U6" s="204" t="s">
         <v>256</v>
       </c>
-      <c r="V6" s="35" t="s">
+      <c r="V6" s="204" t="s">
         <v>255</v>
       </c>
-      <c r="W6" s="35" t="s">
+      <c r="W6" s="204" t="s">
         <v>254</v>
       </c>
-      <c r="X6" s="35" t="s">
+      <c r="X6" s="204" t="s">
         <v>2498</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Y6" s="204" t="s">
         <v>2499</v>
       </c>
-      <c r="Z6" s="35" t="s">
+      <c r="Z6" s="204" t="s">
         <v>276</v>
       </c>
-      <c r="AA6" s="35" t="s">
+      <c r="AA6" s="204" t="s">
         <v>2500</v>
       </c>
-      <c r="AB6" s="35" t="s">
+      <c r="AB6" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="AC6" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD6" s="64" t="s">
+      <c r="AC6" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD6" s="204" t="s">
         <v>259</v>
       </c>
-      <c r="AE6" s="35" t="s">
+      <c r="AE6" s="204" t="s">
         <v>256</v>
       </c>
-      <c r="AF6" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG6" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH6" s="64" t="s">
+      <c r="AF6" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG6" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH6" s="204" t="s">
         <v>249</v>
       </c>
-      <c r="AI6" s="35" t="s">
+      <c r="AI6" s="204" t="s">
         <v>2501</v>
       </c>
-      <c r="AJ6" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="AK6" s="35" t="s">
+      <c r="AJ6" s="204" t="s">
+        <v>250</v>
+      </c>
+      <c r="AK6" s="204" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:37" s="207" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="206" t="s">
         <v>1429</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="206" t="s">
         <v>2502</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="206" t="s">
         <v>2368</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="206" t="s">
         <v>2503</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="206" t="s">
         <v>2504</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="206" t="s">
         <v>2505</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="206" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="35" t="s">
-        <v>2508</v>
-      </c>
-      <c r="I7" s="64" t="s">
+      <c r="H7" s="206" t="s">
+        <v>2648</v>
+      </c>
+      <c r="I7" s="206" t="s">
+        <v>2510</v>
+      </c>
+      <c r="J7" s="206" t="s">
         <v>2512</v>
       </c>
-      <c r="J7" s="64" t="s">
-        <v>2514</v>
-      </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="206" t="s">
         <v>259</v>
       </c>
-      <c r="L7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="M7" s="64" t="s">
+      <c r="L7" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="M7" s="206" t="s">
         <v>252</v>
       </c>
-      <c r="N7" s="35" t="s">
+      <c r="N7" s="206" t="s">
         <v>1453</v>
       </c>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="206" t="s">
         <v>252</v>
       </c>
-      <c r="P7" s="35" t="s">
+      <c r="P7" s="206" t="s">
         <v>249</v>
       </c>
-      <c r="Q7" s="35" t="s">
+      <c r="Q7" s="206" t="s">
         <v>255</v>
       </c>
-      <c r="R7" s="35" t="s">
+      <c r="R7" s="206" t="s">
         <v>260</v>
       </c>
-      <c r="S7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="T7" s="35" t="s">
+      <c r="S7" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="T7" s="206" t="s">
         <v>257</v>
       </c>
-      <c r="U7" s="35" t="s">
+      <c r="U7" s="206" t="s">
         <v>256</v>
       </c>
-      <c r="V7" s="35" t="s">
+      <c r="V7" s="206" t="s">
         <v>255</v>
       </c>
-      <c r="W7" s="35" t="s">
+      <c r="W7" s="206" t="s">
         <v>254</v>
       </c>
-      <c r="X7" s="35" t="s">
+      <c r="X7" s="206" t="s">
         <v>2498</v>
       </c>
-      <c r="Y7" s="35" t="s">
+      <c r="Y7" s="206" t="s">
         <v>2499</v>
       </c>
-      <c r="Z7" s="35" t="s">
+      <c r="Z7" s="206" t="s">
         <v>276</v>
       </c>
-      <c r="AA7" s="35" t="s">
+      <c r="AA7" s="206" t="s">
         <v>2500</v>
       </c>
-      <c r="AB7" s="35" t="s">
+      <c r="AB7" s="206" t="s">
         <v>249</v>
       </c>
-      <c r="AC7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="AD7" s="64" t="s">
+      <c r="AC7" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD7" s="206" t="s">
         <v>2506</v>
       </c>
-      <c r="AE7" s="35" t="s">
+      <c r="AE7" s="206" t="s">
         <v>256</v>
       </c>
-      <c r="AF7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG7" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="AH7" s="64" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI7" s="35" t="s">
+      <c r="AF7" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG7" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH7" s="206" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI7" s="206" t="s">
         <v>2501</v>
       </c>
-      <c r="AJ7" s="64" t="s">
+      <c r="AJ7" s="206" t="s">
         <v>249</v>
       </c>
-      <c r="AK7" s="35" t="s">
+      <c r="AK7" s="206" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>1429</v>
       </c>
@@ -17199,13 +17230,13 @@
         <v>249</v>
       </c>
       <c r="H8" s="35" t="s">
+        <v>2508</v>
+      </c>
+      <c r="I8" s="64" t="s">
         <v>2510</v>
       </c>
-      <c r="I8" s="64" t="s">
-        <v>2512</v>
-      </c>
       <c r="J8" s="64" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="K8" s="35" t="s">
         <v>259</v>
@@ -17289,7 +17320,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" s="37" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>1429</v>
       </c>
@@ -17312,13 +17343,13 @@
         <v>249</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="I9" s="64" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="J9" s="64" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
       <c r="K9" s="35" t="s">
         <v>259</v>
@@ -17378,7 +17409,7 @@
         <v>250</v>
       </c>
       <c r="AD9" s="64" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="AE9" s="35" t="s">
         <v>256</v>
@@ -17402,7 +17433,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
       <c r="M10" s="19"/>
@@ -17429,15 +17460,15 @@
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="19" customWidth="1"/>
-    <col min="2" max="8" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="8" width="14.44140625" style="19" customWidth="1"/>
     <col min="9" max="9" width="20" style="36" customWidth="1"/>
     <col min="10" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
@@ -17466,7 +17497,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -17495,7 +17526,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -17524,7 +17555,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -17553,7 +17584,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -17582,7 +17613,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>1430</v>
       </c>
@@ -17629,14 +17660,14 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="20" style="19" customWidth="1"/>
     <col min="9" max="9" width="20" style="36" customWidth="1"/>
     <col min="10" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
@@ -17665,7 +17696,7 @@
         <v>2401</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -17694,7 +17725,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -17723,7 +17754,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -17752,7 +17783,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -17781,7 +17812,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>2356</v>
       </c>
@@ -17804,13 +17835,13 @@
         <v>249</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="I6" s="47" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>2356</v>
       </c>
@@ -17833,15 +17864,15 @@
         <v>249</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="I7" s="47" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E14" s="177" t="s">
-        <v>2559</v>
+        <v>2557</v>
       </c>
     </row>
   </sheetData>
@@ -17858,20 +17889,20 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="20" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" style="164" customWidth="1"/>
     <col min="9" max="10" width="20" style="41" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="41" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" style="41" customWidth="1"/>
+    <col min="11" max="11" width="23.44140625" style="41" customWidth="1"/>
+    <col min="12" max="12" width="24.109375" style="41" customWidth="1"/>
     <col min="13" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>212</v>
       </c>
@@ -17909,7 +17940,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>217</v>
       </c>
@@ -17947,7 +17978,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>222</v>
       </c>
@@ -17985,7 +18016,7 @@
         <v>2398</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>246</v>
       </c>
@@ -18023,7 +18054,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>229</v>
       </c>
@@ -18061,7 +18092,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="151" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="151" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="147" t="s">
         <v>1430</v>
       </c>
@@ -18084,7 +18115,7 @@
         <v>249</v>
       </c>
       <c r="H6" s="162" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="I6" s="149" t="s">
         <v>249</v>
@@ -18093,13 +18124,13 @@
         <v>249</v>
       </c>
       <c r="K6" s="150" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="L6" s="150" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="46" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="74" t="s">
         <v>1430</v>
       </c>
@@ -18122,7 +18153,7 @@
         <v>249</v>
       </c>
       <c r="H7" s="163" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="I7" s="76" t="s">
         <v>249</v>
@@ -18137,30 +18168,30 @@
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="136" t="s">
         <v>1429</v>
       </c>
       <c r="B8" s="136" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="C8" s="136" t="s">
         <v>2358</v>
       </c>
       <c r="D8" s="136" t="s">
+        <v>2553</v>
+      </c>
+      <c r="E8" s="136" t="s">
+        <v>2554</v>
+      </c>
+      <c r="F8" s="136" t="s">
         <v>2555</v>
-      </c>
-      <c r="E8" s="136" t="s">
-        <v>2556</v>
-      </c>
-      <c r="F8" s="136" t="s">
-        <v>2557</v>
       </c>
       <c r="G8" s="136" t="s">
         <v>249</v>
       </c>
       <c r="H8" s="161" t="s">
-        <v>2558</v>
+        <v>2556</v>
       </c>
       <c r="I8" s="136" t="s">
         <v>249</v>
@@ -18169,10 +18200,10 @@
         <v>249</v>
       </c>
       <c r="K8" s="41" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
   </sheetData>
@@ -18199,18 +18230,18 @@
       <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="20" style="19" customWidth="1"/>
-    <col min="3" max="8" width="14.42578125" style="19" customWidth="1"/>
+    <col min="3" max="8" width="14.44140625" style="19" customWidth="1"/>
     <col min="9" max="21" width="20" style="36" customWidth="1"/>
     <col min="22" max="23" width="20" style="34" customWidth="1"/>
     <col min="24" max="29" width="20" style="36" customWidth="1"/>
     <col min="30" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="62" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="62" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>212</v>
       </c>
@@ -18299,7 +18330,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="62" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="62" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>217</v>
       </c>
@@ -18388,7 +18419,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="3" spans="1:29" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -18477,7 +18508,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -18566,7 +18597,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -18655,7 +18686,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="74" t="s">
         <v>1430</v>
       </c>
@@ -18723,7 +18754,7 @@
         <v>1209</v>
       </c>
       <c r="W6" s="157" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="X6" s="47" t="s">
         <v>1210</v>
@@ -18744,7 +18775,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="165" t="s">
         <v>1430</v>
       </c>
@@ -18767,7 +18798,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="165" t="s">
-        <v>2560</v>
+        <v>2558</v>
       </c>
       <c r="I7" s="167" t="s">
         <v>257</v>
@@ -18812,7 +18843,7 @@
         <v>1209</v>
       </c>
       <c r="W7" s="167" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="X7" s="167" t="s">
         <v>1210</v>
@@ -18850,19 +18881,19 @@
   </sheetPr>
   <dimension ref="A1:ES13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="8" ySplit="5" topLeftCell="EM6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
       <selection pane="bottomRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="5.5703125" style="19" customWidth="1"/>
-    <col min="4" max="7" width="15.28515625" style="19" customWidth="1"/>
+    <col min="1" max="3" width="5.5546875" style="19" customWidth="1"/>
+    <col min="4" max="7" width="15.33203125" style="19" customWidth="1"/>
     <col min="8" max="8" width="20" style="19" customWidth="1"/>
-    <col min="9" max="9" width="79.42578125" style="101" customWidth="1"/>
+    <col min="9" max="9" width="79.44140625" style="101" customWidth="1"/>
     <col min="10" max="10" width="20" style="52" customWidth="1"/>
     <col min="11" max="13" width="20" style="19" customWidth="1"/>
     <col min="14" max="15" width="20" style="52" customWidth="1"/>
@@ -18873,16 +18904,16 @@
     <col min="25" max="53" width="20" style="19" customWidth="1"/>
     <col min="54" max="55" width="20" style="169" customWidth="1"/>
     <col min="56" max="59" width="20" style="19" customWidth="1"/>
-    <col min="60" max="60" width="30.7109375" style="118" customWidth="1"/>
+    <col min="60" max="60" width="30.6640625" style="118" customWidth="1"/>
     <col min="61" max="66" width="20" style="19" customWidth="1"/>
-    <col min="67" max="69" width="11.42578125" style="19" customWidth="1"/>
-    <col min="70" max="70" width="11.42578125" style="52" customWidth="1"/>
+    <col min="67" max="69" width="11.44140625" style="19" customWidth="1"/>
+    <col min="70" max="70" width="11.44140625" style="52" customWidth="1"/>
     <col min="71" max="103" width="20" style="19" customWidth="1"/>
     <col min="104" max="105" width="20" style="109" customWidth="1"/>
     <col min="106" max="112" width="20" style="19" customWidth="1"/>
     <col min="113" max="113" width="20" style="52" customWidth="1"/>
     <col min="114" max="129" width="20" style="19" customWidth="1"/>
-    <col min="130" max="130" width="255.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="255.6640625" style="19" bestFit="1" customWidth="1"/>
     <col min="131" max="133" width="20" style="19" customWidth="1"/>
     <col min="134" max="134" width="20" style="52" customWidth="1"/>
     <col min="135" max="135" width="20" style="19" customWidth="1"/>
@@ -18890,11 +18921,11 @@
     <col min="137" max="140" width="20" style="19" customWidth="1"/>
     <col min="141" max="144" width="20" style="52" customWidth="1"/>
     <col min="145" max="148" width="9" style="19"/>
-    <col min="149" max="149" width="17.140625" style="19" customWidth="1"/>
+    <col min="149" max="149" width="17.109375" style="19" customWidth="1"/>
     <col min="150" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:149" s="62" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:149" s="62" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>212</v>
       </c>
@@ -19331,19 +19362,19 @@
         <v>2297</v>
       </c>
       <c r="EP1" s="200" t="s">
+        <v>2561</v>
+      </c>
+      <c r="EQ1" s="172" t="s">
+        <v>2562</v>
+      </c>
+      <c r="ER1" s="203" t="s">
         <v>2563</v>
       </c>
-      <c r="EQ1" s="172" t="s">
+      <c r="ES1" s="200" t="s">
         <v>2564</v>
       </c>
-      <c r="ER1" s="203" t="s">
-        <v>2565</v>
-      </c>
-      <c r="ES1" s="200" t="s">
-        <v>2566</v>
-      </c>
-    </row>
-    <row r="2" spans="1:149" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:149" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -19780,19 +19811,19 @@
         <v>13</v>
       </c>
       <c r="EP2" s="5" t="s">
+        <v>2565</v>
+      </c>
+      <c r="EQ2" s="173" t="s">
+        <v>2566</v>
+      </c>
+      <c r="ER2" s="5" t="s">
         <v>2567</v>
       </c>
-      <c r="EQ2" s="173" t="s">
+      <c r="ES2" s="173" t="s">
         <v>2568</v>
       </c>
-      <c r="ER2" s="5" t="s">
-        <v>2569</v>
-      </c>
-      <c r="ES2" s="173" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="3" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:149" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -20229,19 +20260,19 @@
         <v>316</v>
       </c>
       <c r="EP3" s="174" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="EQ3" s="174" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
       <c r="ER3" s="174" t="s">
         <v>1958</v>
       </c>
       <c r="ES3" s="174" t="s">
-        <v>2573</v>
-      </c>
-    </row>
-    <row r="4" spans="1:149" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="4" spans="1:149" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -20678,19 +20709,19 @@
         <v>247</v>
       </c>
       <c r="EP4" s="175" t="s">
+        <v>2572</v>
+      </c>
+      <c r="EQ4" s="175" t="s">
+        <v>2573</v>
+      </c>
+      <c r="ER4" s="175" t="s">
         <v>2574</v>
       </c>
-      <c r="EQ4" s="175" t="s">
-        <v>2575</v>
-      </c>
-      <c r="ER4" s="175" t="s">
-        <v>2576</v>
-      </c>
       <c r="ES4" s="175" t="s">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="5" spans="1:149" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="5" spans="1:149" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -21139,7 +21170,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:149" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:149" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>1430</v>
       </c>
@@ -21162,7 +21193,7 @@
         <v>249</v>
       </c>
       <c r="H6" s="108" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
       <c r="I6" s="100" t="str">
         <f>CONCATENATE("SubNetwork=",C6,",MEID=",D6,",ENBFunctionFDD=",E6,",CellMeasGroup=1")</f>
@@ -21577,19 +21608,19 @@
         <v>250</v>
       </c>
       <c r="EP6" s="170" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ6" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER6" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES6" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="103" t="s">
         <v>1430</v>
       </c>
@@ -22027,19 +22058,19 @@
         <v>250</v>
       </c>
       <c r="EP7" s="201" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ7" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER7" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES7" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:149" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:149" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>1430</v>
       </c>
@@ -22062,7 +22093,7 @@
         <v>249</v>
       </c>
       <c r="H8" s="108" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="I8" s="100" t="str">
         <f>CONCATENATE("SubNetwork=",C8,",MEID=",D8,",ENBFunctionFDD=",E8,",CellMeasGroup=1")</f>
@@ -22477,19 +22508,19 @@
         <v>250</v>
       </c>
       <c r="EP8" s="170" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ8" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER8" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES8" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>1430</v>
       </c>
@@ -22927,19 +22958,19 @@
         <v>250</v>
       </c>
       <c r="EP9" s="170" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ9" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER9" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES9" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="129" t="s">
         <v>1430</v>
       </c>
@@ -23373,19 +23404,19 @@
         <v>250</v>
       </c>
       <c r="EP10" s="170" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ10" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER10" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES10" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:149" s="103" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="129" t="s">
         <v>1430</v>
       </c>
@@ -23819,19 +23850,19 @@
         <v>250</v>
       </c>
       <c r="EP11" s="170" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ11" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER11" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES11" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:149" s="36" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:149" s="36" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="36" t="s">
         <v>1430</v>
       </c>
@@ -23854,7 +23885,7 @@
         <v>249</v>
       </c>
       <c r="H12" s="179" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="I12" s="178" t="str">
         <f>CONCATENATE("SubNetwork=",C12,",MEID=",D12,",ENBFunctionFDD=",E12,",CellMeasGroup=1")</f>
@@ -24269,19 +24300,19 @@
         <v>250</v>
       </c>
       <c r="EP12" s="182" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ12" s="182" t="s">
         <v>250</v>
       </c>
       <c r="ER12" s="182" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES12" s="171">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:149" s="90" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:149" s="90" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>1430</v>
       </c>
@@ -24304,7 +24335,7 @@
         <v>249</v>
       </c>
       <c r="H13" s="108" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
       <c r="I13" s="100" t="str">
         <f>CONCATENATE("SubNetwork=",C13,",MEID=",D13,",ENBFunctionFDD=",E13,",CellMeasGroup=1")</f>
@@ -24719,13 +24750,13 @@
         <v>250</v>
       </c>
       <c r="EP13" s="170" t="s">
-        <v>2561</v>
+        <v>2559</v>
       </c>
       <c r="EQ13" s="170" t="s">
         <v>250</v>
       </c>
       <c r="ER13" s="170" t="s">
-        <v>2562</v>
+        <v>2560</v>
       </c>
       <c r="ES13" s="171">
         <v>2</v>
@@ -24747,12 +24778,12 @@
       <selection activeCell="B23" sqref="A1:B199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="199" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -24760,7 +24791,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -24769,7 +24800,7 @@
         <v>XCDeviceSet</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -24778,7 +24809,7 @@
         <v>XCDevice</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -24787,7 +24818,7 @@
         <v>XCIpLayerConfig</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -24796,7 +24827,7 @@
         <v>ENBFunctionFDD</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -24805,7 +24836,7 @@
         <v>S1Ap</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -24814,7 +24845,7 @@
         <v>X2Ap</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -24823,7 +24854,7 @@
         <v>ECellEquipmentFunction</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -24832,7 +24863,7 @@
         <v>SignalResCfg</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -24841,7 +24872,7 @@
         <v>Paging</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -24850,7 +24881,7 @@
         <v>LoadManagement</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -24859,7 +24890,7 @@
         <v>SecurityManagement</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -24868,7 +24899,7 @@
         <v>MobilityManagement</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -24877,7 +24908,7 @@
         <v>GlobalQoS</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -24886,7 +24917,7 @@
         <v>UeTimer</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -24895,7 +24926,7 @@
         <v>GlobleSwitchInformation</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -24904,7 +24935,7 @@
         <v>BoardAppliAttr</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -24913,7 +24944,7 @@
         <v>ExtECellEqFunc</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -24922,7 +24953,7 @@
         <v>EUtranCellFDD</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -24931,7 +24962,7 @@
         <v>PhyChannel</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -24940,7 +24971,7 @@
         <v>AC</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -24949,7 +24980,7 @@
         <v>PrachFDD</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -24958,7 +24989,7 @@
         <v>PowerControlUL</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -24967,7 +24998,7 @@
         <v>PowerControlDL</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -24976,7 +25007,7 @@
         <v>EUtranCellMeasurement</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
@@ -24985,7 +25016,7 @@
         <v>EUtranRelation</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -24994,7 +25025,7 @@
         <v>UtranRelation</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -25003,7 +25034,7 @@
         <v>GsmRelation</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -25012,7 +25043,7 @@
         <v>CDMA2000Relation</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -25021,7 +25052,7 @@
         <v>EUtranReselection</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>43</v>
       </c>
@@ -25030,7 +25061,7 @@
         <v>UtranReselectionFDD</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -25039,7 +25070,7 @@
         <v>UtranReselectionTDD</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -25048,7 +25079,7 @@
         <v>CDMA2000Reselection</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>46</v>
       </c>
@@ -25057,7 +25088,7 @@
         <v>GsmReselection</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -25066,7 +25097,7 @@
         <v>QoS</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>48</v>
       </c>
@@ -25075,7 +25106,7 @@
         <v>EMLP</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>49</v>
       </c>
@@ -25084,7 +25115,7 @@
         <v>ICIC</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>50</v>
       </c>
@@ -25093,7 +25124,7 @@
         <v>SIScheduling</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -25102,7 +25133,7 @@
         <v>SonCellPolicy</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -25111,7 +25142,7 @@
         <v>UtranCellReselectionFDD</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>53</v>
       </c>
@@ -25120,7 +25151,7 @@
         <v>HetNetMacMicRelation</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -25129,7 +25160,7 @@
         <v>HetNeteICICConfig</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -25138,7 +25169,7 @@
         <v>ServiceMAC</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>56</v>
       </c>
@@ -25147,7 +25178,7 @@
         <v>CSIRSConfig</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>57</v>
       </c>
@@ -25156,7 +25187,7 @@
         <v>PositionConfig</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>58</v>
       </c>
@@ -25165,7 +25196,7 @@
         <v>PlmnFreqPri</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>59</v>
       </c>
@@ -25174,7 +25205,7 @@
         <v>CarrierAggregatin</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>60</v>
       </c>
@@ -25183,7 +25214,7 @@
         <v>VoLTEConfigCell</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>61</v>
       </c>
@@ -25192,7 +25223,7 @@
         <v>LoadMNGCell</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>62</v>
       </c>
@@ -25201,7 +25232,7 @@
         <v>LoadControlCell</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>63</v>
       </c>
@@ -25210,7 +25241,7 @@
         <v>SCSelfOrgAlg</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>64</v>
       </c>
@@ -25219,7 +25250,7 @@
         <v>LimitAMBRConfig</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>65</v>
       </c>
@@ -25228,7 +25259,7 @@
         <v>VoLTELoad</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>66</v>
       </c>
@@ -25237,7 +25268,7 @@
         <v>CellQoS</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -25246,7 +25277,7 @@
         <v>SceneConfig</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -25255,7 +25286,7 @@
         <v>LaaDfsPara</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -25264,7 +25295,7 @@
         <v>MRFreqCfg</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -25273,7 +25304,7 @@
         <v>WLANOffloadPara</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -25282,7 +25313,7 @@
         <v>SIBSchedulingConfigFDD</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -25291,7 +25322,7 @@
         <v>TdlBFwgt</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -25300,7 +25331,7 @@
         <v>SpeedLimitQCI</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -25309,7 +25340,7 @@
         <v>LaaPara</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -25318,7 +25349,7 @@
         <v>EMTCCellCfg</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -25327,7 +25358,7 @@
         <v>EMTCPrach</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>77</v>
       </c>
@@ -25336,7 +25367,7 @@
         <v>EMTCPhyCH</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>78</v>
       </c>
@@ -25345,7 +25376,7 @@
         <v>EMTCSISche</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>79</v>
       </c>
@@ -25354,7 +25385,7 @@
         <v>EMTCSICfg</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -25363,7 +25394,7 @@
         <v>EMTCPaging</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>81</v>
       </c>
@@ -25372,7 +25403,7 @@
         <v>EMTCSrvMac</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>82</v>
       </c>
@@ -25381,7 +25412,7 @@
         <v>EMTCEABPara</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>83</v>
       </c>
@@ -25390,7 +25421,7 @@
         <v>EMTCHopCfg</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -25399,7 +25430,7 @@
         <v>EMTCUECnst</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -25408,7 +25439,7 @@
         <v>EMTCCelSel</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>86</v>
       </c>
@@ -25417,7 +25448,7 @@
         <v>EMTCCELeAlg</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>87</v>
       </c>
@@ -25426,7 +25457,7 @@
         <v>CellAlarm</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>88</v>
       </c>
@@ -25435,7 +25466,7 @@
         <v>EMTCCellMeas</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>89</v>
       </c>
@@ -25444,7 +25475,7 @@
         <v>BandwdhCon</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>90</v>
       </c>
@@ -25453,7 +25484,7 @@
         <v>NrNiborRela</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -25462,7 +25493,7 @@
         <v>TraffTypeCellDlFDD</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -25471,7 +25502,7 @@
         <v>TraffTypeCellUlFDD</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -25480,7 +25511,7 @@
         <v>MuMimoCfgDLFDD</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>94</v>
       </c>
@@ -25489,7 +25520,7 @@
         <v>MagicRadioFDD</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -25498,7 +25529,7 @@
         <v>UtranLBSAptFDD</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>96</v>
       </c>
@@ -25507,7 +25538,7 @@
         <v>PrePingPongFDD</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -25516,7 +25547,7 @@
         <v>EMTCPwrCrUlFDD</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -25525,7 +25556,7 @@
         <v>NRCellReset</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>99</v>
       </c>
@@ -25534,7 +25565,7 @@
         <v>RFFingerPntFDD</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>100</v>
       </c>
@@ -25543,7 +25574,7 @@
         <v>SonGAAPCCfgFDD</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>101</v>
       </c>
@@ -25552,7 +25583,7 @@
         <v>AAPCWgtValueFDD</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>102</v>
       </c>
@@ -25561,7 +25592,7 @@
         <v>ENDCPolicyFDD</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>103</v>
       </c>
@@ -25570,7 +25601,7 @@
         <v>ExternalEUtranCellFDD</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -25579,7 +25610,7 @@
         <v>ExternalEUtranCellTDD</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>105</v>
       </c>
@@ -25588,7 +25619,7 @@
         <v>ExternalUtranCellFDD</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>106</v>
       </c>
@@ -25597,7 +25628,7 @@
         <v>ExternalUtranCellTDD</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>107</v>
       </c>
@@ -25606,7 +25637,7 @@
         <v>ExternalGsmCell</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>108</v>
       </c>
@@ -25615,7 +25646,7 @@
         <v>ExternalSector</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>109</v>
       </c>
@@ -25624,7 +25655,7 @@
         <v>UeEUtranMeasurement</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -25633,7 +25664,7 @@
         <v>UeRATMeasurement</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>111</v>
       </c>
@@ -25642,7 +25673,7 @@
         <v>QoSServiceClass</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>112</v>
       </c>
@@ -25651,7 +25682,7 @@
         <v>QoSDSCPMapping</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -25660,7 +25691,7 @@
         <v>QoSPBRMapping</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -25669,7 +25700,7 @@
         <v>QoSPRIMapping</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>115</v>
       </c>
@@ -25678,7 +25709,7 @@
         <v>SonControl</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>116</v>
       </c>
@@ -25687,7 +25718,7 @@
         <v>SonPolicyAnr</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>117</v>
       </c>
@@ -25696,7 +25727,7 @@
         <v>SonPolicyPci</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>118</v>
       </c>
@@ -25705,7 +25736,7 @@
         <v>SonPolicyMro</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>119</v>
       </c>
@@ -25714,7 +25745,7 @@
         <v>SonPolicyRo</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>120</v>
       </c>
@@ -25723,7 +25754,7 @@
         <v>SonPolicyX2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>121</v>
       </c>
@@ -25732,7 +25763,7 @@
         <v>SonPolicyCco</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>122</v>
       </c>
@@ -25741,7 +25772,7 @@
         <v>SuperCellRelation</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>123</v>
       </c>
@@ -25750,7 +25781,7 @@
         <v>ExpConNtf</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>124</v>
       </c>
@@ -25759,7 +25790,7 @@
         <v>CICD</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>125</v>
       </c>
@@ -25768,7 +25799,7 @@
         <v>CICControled</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>126</v>
       </c>
@@ -25777,7 +25808,7 @@
         <v>SonSpecShareFDD</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>127</v>
       </c>
@@ -25786,7 +25817,7 @@
         <v>ServiceDrx</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>128</v>
       </c>
@@ -25795,7 +25826,7 @@
         <v>ControlPlaneTimer</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>129</v>
       </c>
@@ -25804,7 +25835,7 @@
         <v>CDMA1xPlanTable</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>130</v>
       </c>
@@ -25813,7 +25844,7 @@
         <v>SonPolicyEs</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>131</v>
       </c>
@@ -25822,7 +25853,7 @@
         <v>PubFunctionPara</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>132</v>
       </c>
@@ -25831,7 +25862,7 @@
         <v>MobileSpeedHO</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>133</v>
       </c>
@@ -25840,7 +25871,7 @@
         <v>CoeNBXCIPLink</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>134</v>
       </c>
@@ -25849,7 +25880,7 @@
         <v>SonPolicyMlb</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>135</v>
       </c>
@@ -25858,7 +25889,7 @@
         <v>SonPolicySCH</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>136</v>
       </c>
@@ -25867,7 +25898,7 @@
         <v>SonCS</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>137</v>
       </c>
@@ -25876,7 +25907,7 @@
         <v>SonMagicRadio</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>138</v>
       </c>
@@ -25885,7 +25916,7 @@
         <v>SoneNBPolicy</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>139</v>
       </c>
@@ -25894,7 +25925,7 @@
         <v>ULCOMP</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>140</v>
       </c>
@@ -25903,7 +25934,7 @@
         <v>DLCOMP</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -25912,7 +25943,7 @@
         <v>CA</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>142</v>
       </c>
@@ -25921,7 +25952,7 @@
         <v>MultiPLMNLocSt</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>143</v>
       </c>
@@ -25930,7 +25961,7 @@
         <v>CSCluster</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>144</v>
       </c>
@@ -25939,7 +25970,7 @@
         <v>CSParameter</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>145</v>
       </c>
@@ -25948,7 +25979,7 @@
         <v>CSTransmission</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>146</v>
       </c>
@@ -25957,7 +25988,7 @@
         <v>CSCell</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>147</v>
       </c>
@@ -25966,7 +25997,7 @@
         <v>PciSection</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>148</v>
       </c>
@@ -25975,7 +26006,7 @@
         <v>CellMeasGroup</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>149</v>
       </c>
@@ -25984,7 +26015,7 @@
         <v>COMP</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>150</v>
       </c>
@@ -25993,7 +26024,7 @@
         <v>PDCP</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>151</v>
       </c>
@@ -26002,7 +26033,7 @@
         <v>SCAConfig</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>152</v>
       </c>
@@ -26011,7 +26042,7 @@
         <v>ENBServicePrior</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>153</v>
       </c>
@@ -26020,7 +26051,7 @@
         <v>SPSConfig</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>154</v>
       </c>
@@ -26029,7 +26060,7 @@
         <v>AdjacentEutranFreqLTE</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>155</v>
       </c>
@@ -26038,7 +26069,7 @@
         <v>AdjacentGSMFreq</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>156</v>
       </c>
@@ -26047,7 +26078,7 @@
         <v>AdjacentUtranFreqTDD</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>157</v>
       </c>
@@ -26056,7 +26087,7 @@
         <v>AdjacentUtranFreqFDD</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>158</v>
       </c>
@@ -26065,7 +26096,7 @@
         <v>AdjacentCDMAFreq</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>159</v>
       </c>
@@ -26074,7 +26105,7 @@
         <v>IdleMobilityProfile</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>160</v>
       </c>
@@ -26083,7 +26114,7 @@
         <v>PCIRange</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -26092,7 +26123,7 @@
         <v>CSSAp</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>162</v>
       </c>
@@ -26101,7 +26132,7 @@
         <v>VoLTEConfig</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>163</v>
       </c>
@@ -26110,7 +26141,7 @@
         <v>ENodeBGloMBMS</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>164</v>
       </c>
@@ -26119,7 +26150,7 @@
         <v>SignalProcSTG</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>165</v>
       </c>
@@ -26128,7 +26159,7 @@
         <v>M2Ap</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>166</v>
       </c>
@@ -26137,7 +26168,7 @@
         <v>CSFBProfile</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>167</v>
       </c>
@@ -26146,7 +26177,7 @@
         <v>PSHOProfile</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>168</v>
       </c>
@@ -26155,7 +26186,7 @@
         <v>SRVCCProfile</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>169</v>
       </c>
@@ -26164,7 +26195,7 @@
         <v>REDPProfile</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>170</v>
       </c>
@@ -26173,7 +26204,7 @@
         <v>UpLinkDataCompression</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>171</v>
       </c>
@@ -26182,7 +26213,7 @@
         <v>QcellPosition</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>172</v>
       </c>
@@ -26191,7 +26222,7 @@
         <v>CAPCellFeqPri</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>173</v>
       </c>
@@ -26200,7 +26231,7 @@
         <v>CaProfileList</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>174</v>
       </c>
@@ -26209,7 +26240,7 @@
         <v>LBProfile</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>175</v>
       </c>
@@ -26218,7 +26249,7 @@
         <v>PerQCIMeasure</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>176</v>
       </c>
@@ -26227,7 +26258,7 @@
         <v>CASCellFeqPri</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>177</v>
       </c>
@@ -26236,7 +26267,7 @@
         <v>EABParaConfig</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>178</v>
       </c>
@@ -26245,7 +26276,7 @@
         <v>SCSelfOrgResConfig</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>179</v>
       </c>
@@ -26254,7 +26285,7 @@
         <v>PerQCIStrategy</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>180</v>
       </c>
@@ -26263,7 +26294,7 @@
         <v>SuperCellParameter</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>181</v>
       </c>
@@ -26272,7 +26303,7 @@
         <v>SctpPlmn</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>182</v>
       </c>
@@ -26281,7 +26312,7 @@
         <v>BandwidthConfigPara</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>183</v>
       </c>
@@ -26290,7 +26321,7 @@
         <v>XwAp</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>184</v>
       </c>
@@ -26299,7 +26330,7 @@
         <v>UDCLoadControlPara</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -26308,7 +26339,7 @@
         <v>UplinkMultiUserMIMO</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>186</v>
       </c>
@@ -26317,7 +26348,7 @@
         <v>EMTCSrvDrx</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -26326,7 +26357,7 @@
         <v>RLCPara</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>188</v>
       </c>
@@ -26335,7 +26366,7 @@
         <v>EMTCGlobalFDD</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>189</v>
       </c>
@@ -26344,7 +26375,7 @@
         <v>IBBUEUtranCellFDD</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>190</v>
       </c>
@@ -26353,7 +26384,7 @@
         <v>SmartNetDist</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>191</v>
       </c>
@@ -26362,7 +26393,7 @@
         <v>OperatorSpecificSPID</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>192</v>
       </c>
@@ -26371,7 +26402,7 @@
         <v>ToolFgiConfigMap</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>193</v>
       </c>
@@ -26380,7 +26411,7 @@
         <v>ExternalNrCell</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>194</v>
       </c>
@@ -26389,7 +26420,7 @@
         <v>XpAp</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>195</v>
       </c>
@@ -26398,7 +26429,7 @@
         <v>ExternalNrCellFDD</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>196</v>
       </c>
@@ -26407,7 +26438,7 @@
         <v>DualConnectionBear</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>197</v>
       </c>
@@ -26416,7 +26447,7 @@
         <v>GlobalVolteFDD</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>198</v>
       </c>
@@ -26425,7 +26456,7 @@
         <v>HoProfIMEISVFDD</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>199</v>
       </c>
@@ -26434,7 +26465,7 @@
         <v>CAProfIMEISVFDD</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -26443,7 +26474,7 @@
         <v>DRXProfIMEISVFDD</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>201</v>
       </c>
@@ -26452,7 +26483,7 @@
         <v>SratgMapiIMEISVFDD</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>202</v>
       </c>
@@ -26461,7 +26492,7 @@
         <v>ENDCX2Ap</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>203</v>
       </c>
@@ -26470,7 +26501,7 @@
         <v>PerQCIA1A2MEAFDD</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>204</v>
       </c>
@@ -26479,7 +26510,7 @@
         <v>UserCAREA4ENBFDD</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>205</v>
       </c>
@@ -26488,7 +26519,7 @@
         <v>TCPOptimiseFDD</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>206</v>
       </c>
@@ -26497,7 +26528,7 @@
         <v>BasebandLogCfg</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>207</v>
       </c>
@@ -26506,7 +26537,7 @@
         <v>PGBRProfileFDD</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>208</v>
       </c>
@@ -26515,7 +26546,7 @@
         <v>MECSAp</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>209</v>
       </c>
@@ -26524,7 +26555,7 @@
         <v>XtAp</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>210</v>
       </c>
@@ -26533,7 +26564,7 @@
         <v>NBRBlackLstFDD</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>211</v>
       </c>
@@ -26562,22 +26593,22 @@
   <dimension ref="A1:FR9"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="8" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="5" topLeftCell="FN6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="BR1" sqref="BR1"/>
+      <selection pane="bottomRight" activeCell="FC1" sqref="FC1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="66.28515625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="66.33203125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" style="19" customWidth="1"/>
     <col min="6" max="6" width="13" style="19" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="19" customWidth="1"/>
     <col min="9" max="14" width="20" style="19" customWidth="1"/>
     <col min="15" max="15" width="20" style="37" customWidth="1"/>
     <col min="16" max="34" width="20" style="19" customWidth="1"/>
@@ -26586,13 +26617,17 @@
     <col min="52" max="52" width="20" style="34" customWidth="1"/>
     <col min="53" max="53" width="20" style="19" customWidth="1"/>
     <col min="54" max="54" width="20" style="58" customWidth="1"/>
-    <col min="55" max="76" width="20" style="19" customWidth="1"/>
-    <col min="77" max="77" width="26.28515625" style="109" customWidth="1"/>
-    <col min="78" max="174" width="20" style="19" customWidth="1"/>
+    <col min="55" max="69" width="20" style="19" customWidth="1"/>
+    <col min="70" max="70" width="20" style="207" customWidth="1"/>
+    <col min="71" max="76" width="20" style="19" customWidth="1"/>
+    <col min="77" max="77" width="26.33203125" style="109" customWidth="1"/>
+    <col min="78" max="158" width="20" style="19" customWidth="1"/>
+    <col min="159" max="159" width="20" style="207" customWidth="1"/>
+    <col min="160" max="174" width="20" style="19" customWidth="1"/>
     <col min="175" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:174" s="62" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:174" s="62" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="77" t="s">
         <v>212</v>
       </c>
@@ -26800,7 +26835,7 @@
       <c r="BQ1" s="79" t="s">
         <v>743</v>
       </c>
-      <c r="BR1" s="79" t="s">
+      <c r="BR1" s="208" t="s">
         <v>744</v>
       </c>
       <c r="BS1" s="79" t="s">
@@ -27067,7 +27102,7 @@
       <c r="FB1" s="77" t="s">
         <v>832</v>
       </c>
-      <c r="FC1" s="77" t="s">
+      <c r="FC1" s="209" t="s">
         <v>833</v>
       </c>
       <c r="FD1" s="77" t="s">
@@ -27116,7 +27151,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="2" spans="1:174" s="62" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:174" s="62" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>217</v>
       </c>
@@ -27324,7 +27359,7 @@
       <c r="BQ2" s="61" t="s">
         <v>907</v>
       </c>
-      <c r="BR2" s="61" t="s">
+      <c r="BR2" s="209" t="s">
         <v>908</v>
       </c>
       <c r="BS2" s="61" t="s">
@@ -27591,7 +27626,7 @@
       <c r="FB2" s="61" t="s">
         <v>959</v>
       </c>
-      <c r="FC2" s="61" t="s">
+      <c r="FC2" s="209" t="s">
         <v>960</v>
       </c>
       <c r="FD2" s="61" t="s">
@@ -27640,7 +27675,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="3" spans="1:174" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:174" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -27848,7 +27883,7 @@
       <c r="BQ3" s="23" t="s">
         <v>1004</v>
       </c>
-      <c r="BR3" s="23" t="s">
+      <c r="BR3" s="210" t="s">
         <v>1005</v>
       </c>
       <c r="BS3" s="23" t="s">
@@ -28115,7 +28150,7 @@
       <c r="FB3" s="23" t="s">
         <v>993</v>
       </c>
-      <c r="FC3" s="23" t="s">
+      <c r="FC3" s="210" t="s">
         <v>994</v>
       </c>
       <c r="FD3" s="23" t="s">
@@ -28164,7 +28199,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="4" spans="1:174" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:174" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -28372,7 +28407,7 @@
       <c r="BQ4" s="25" t="s">
         <v>1075</v>
       </c>
-      <c r="BR4" s="25" t="s">
+      <c r="BR4" s="210" t="s">
         <v>1076</v>
       </c>
       <c r="BS4" s="25" t="s">
@@ -28639,7 +28674,7 @@
       <c r="FB4" s="25" t="s">
         <v>1130</v>
       </c>
-      <c r="FC4" s="25" t="s">
+      <c r="FC4" s="210" t="s">
         <v>1131</v>
       </c>
       <c r="FD4" s="25" t="s">
@@ -28688,7 +28723,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="5" spans="1:174" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:174" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -28896,7 +28931,7 @@
       <c r="BQ5" s="26" t="s">
         <v>233</v>
       </c>
-      <c r="BR5" s="26" t="s">
+      <c r="BR5" s="211" t="s">
         <v>233</v>
       </c>
       <c r="BS5" s="26" t="s">
@@ -29163,7 +29198,7 @@
       <c r="FB5" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="FC5" s="26" t="s">
+      <c r="FC5" s="211" t="s">
         <v>248</v>
       </c>
       <c r="FD5" s="26" t="s">
@@ -29212,7 +29247,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:174" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1429</v>
       </c>
@@ -29420,7 +29455,7 @@
       <c r="BQ6" s="63" t="s">
         <v>2172</v>
       </c>
-      <c r="BR6" s="63" t="s">
+      <c r="BR6" s="212" t="s">
         <v>2173</v>
       </c>
       <c r="BS6" s="63" t="s">
@@ -29687,7 +29722,7 @@
       <c r="FB6" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="FC6" s="63" t="s">
+      <c r="FC6" s="212" t="s">
         <v>255</v>
       </c>
       <c r="FD6" s="63" t="s">
@@ -29736,7 +29771,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:174" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:174" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1429</v>
       </c>
@@ -29944,7 +29979,7 @@
       <c r="BQ7" s="82" t="s">
         <v>2172</v>
       </c>
-      <c r="BR7" s="83" t="s">
+      <c r="BR7" s="213" t="s">
         <v>1306</v>
       </c>
       <c r="BS7" s="82" t="s">
@@ -30211,7 +30246,7 @@
       <c r="FB7" s="82" t="s">
         <v>252</v>
       </c>
-      <c r="FC7" s="82" t="s">
+      <c r="FC7" s="214" t="s">
         <v>252</v>
       </c>
       <c r="FD7" s="82" t="s">
@@ -30260,7 +30295,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:174" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:174" s="52" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="63" t="s">
         <v>1429</v>
       </c>
@@ -30465,7 +30500,7 @@
       <c r="BQ8" s="63" t="s">
         <v>2172</v>
       </c>
-      <c r="BR8" s="63" t="s">
+      <c r="BR8" s="212" t="s">
         <v>2173</v>
       </c>
       <c r="BS8" s="63" t="s">
@@ -30732,7 +30767,7 @@
       <c r="FB8" s="63" t="s">
         <v>252</v>
       </c>
-      <c r="FC8" s="63" t="s">
+      <c r="FC8" s="212" t="s">
         <v>255</v>
       </c>
       <c r="FD8" s="63" t="s">
@@ -30781,57 +30816,57 @@
         <v>258</v>
       </c>
     </row>
-    <row r="9" spans="1:174" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:174" x14ac:dyDescent="0.3">
       <c r="H9" s="68" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="O9" s="202" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="P9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="AH9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="AL9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="AM9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="AS9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="AV9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="DZ9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="EA9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="EW9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="EX9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="FA9" s="68" t="s">
-        <v>2647</v>
-      </c>
-      <c r="FC9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
+      </c>
+      <c r="FC9" s="215" t="s">
+        <v>2645</v>
       </c>
       <c r="FD9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="FO9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="FP9" s="68" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
   </sheetData>
@@ -30846,19 +30881,19 @@
   </sheetPr>
   <dimension ref="A1:BG6"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AR10" sqref="AR10"/>
+    <sheetView topLeftCell="AG1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AQ1" sqref="AQ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="13" width="12.28515625" customWidth="1"/>
+    <col min="1" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="20" style="57" customWidth="1"/>
     <col min="15" max="59" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="188" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="188" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="185" t="s">
         <v>212</v>
       </c>
@@ -31037,7 +31072,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="2" spans="1:59" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>217</v>
       </c>
@@ -31216,7 +31251,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="3" spans="1:59" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>222</v>
       </c>
@@ -31395,7 +31430,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="4" spans="1:59" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>246</v>
       </c>
@@ -31574,7 +31609,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="5" spans="1:59" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>229</v>
       </c>
@@ -31753,7 +31788,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>1430</v>
       </c>
@@ -31946,18 +31981,18 @@
       <selection activeCell="D18" sqref="D18"/>
       <selection pane="topRight" activeCell="D18" sqref="D18"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="12.42578125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="134" customWidth="1"/>
-    <col min="9" max="11" width="12.42578125" style="36" customWidth="1"/>
+    <col min="1" max="7" width="12.44140625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" style="134" customWidth="1"/>
+    <col min="9" max="11" width="12.44140625" style="36" customWidth="1"/>
     <col min="12" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>212</v>
       </c>
@@ -31992,7 +32027,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -32027,7 +32062,7 @@
         <v>2318</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -32062,7 +32097,7 @@
         <v>2322</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -32097,7 +32132,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -32132,7 +32167,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>1430</v>
       </c>
@@ -32184,17 +32219,17 @@
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="20" style="19" customWidth="1"/>
     <col min="8" max="8" width="20" style="36" customWidth="1"/>
-    <col min="9" max="9" width="29.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="19" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5546875" style="19" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" style="19" customWidth="1"/>
     <col min="12" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>212</v>
       </c>
@@ -32229,7 +32264,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -32264,7 +32299,7 @@
         <v>2334</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -32299,7 +32334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>246</v>
       </c>
@@ -32334,7 +32369,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -32369,7 +32404,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>1430</v>
       </c>
@@ -32419,54 +32454,54 @@
       <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2638</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2639</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2640</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>2641</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>2643</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>2644</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2646</v>
       </c>
     </row>
   </sheetData>
@@ -32482,417 +32517,417 @@
       <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B1" s="191" t="s">
-        <v>2586</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B2" s="191" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B3" s="191" t="s">
-        <v>2588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B4" s="191" t="s">
-        <v>2589</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B5" s="191" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B6" s="191" t="s">
-        <v>2591</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B7" s="191" t="s">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B8" s="191" t="s">
-        <v>2593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B9" s="191" t="s">
-        <v>2594</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B10" s="191" t="s">
-        <v>2595</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B11" s="191" t="s">
-        <v>2596</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="192" t="s">
         <v>2199</v>
       </c>
       <c r="B12" t="s">
-        <v>2597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="194" t="s">
         <v>1409</v>
       </c>
       <c r="B13" t="s">
-        <v>2598</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="194" t="s">
         <v>1409</v>
       </c>
       <c r="B14" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="130" t="s">
         <v>2348</v>
       </c>
       <c r="B15" s="130" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="190" t="s">
         <v>2309</v>
       </c>
       <c r="B16" s="130" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="130" t="s">
         <v>2327</v>
       </c>
       <c r="B17" s="130" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="196" t="s">
         <v>277</v>
       </c>
       <c r="B18" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="196" t="s">
         <v>277</v>
       </c>
       <c r="B19" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="196" t="s">
         <v>277</v>
       </c>
       <c r="B20" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B21" s="191" t="s">
-        <v>2606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B22" s="191" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B23" s="191" t="s">
-        <v>2608</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B24" s="191" t="s">
-        <v>2609</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B25" s="191" t="s">
-        <v>2610</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2608</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="191" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="191" t="s">
         <v>1312</v>
       </c>
       <c r="B26" s="191" t="s">
-        <v>2611</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="192" t="s">
         <v>2199</v>
       </c>
       <c r="B27" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2610</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="193" t="s">
         <v>2199</v>
       </c>
       <c r="B28" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="192" t="s">
         <v>2199</v>
       </c>
       <c r="B29" t="s">
-        <v>2614</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" s="130" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="130" t="s">
         <v>2361</v>
       </c>
       <c r="B30" s="130" t="s">
-        <v>2615</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="194" t="s">
         <v>1409</v>
       </c>
       <c r="B31" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>336</v>
       </c>
       <c r="B32" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>336</v>
       </c>
       <c r="B33" t="s">
-        <v>2618</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>336</v>
       </c>
       <c r="B34" t="s">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" s="197" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2617</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="197" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="197" t="s">
         <v>348</v>
       </c>
       <c r="B35" s="197" t="s">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="197" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2618</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="197" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="197" t="s">
         <v>348</v>
       </c>
       <c r="B36" s="197" t="s">
-        <v>2621</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="197" customFormat="1" x14ac:dyDescent="0.25">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="197" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="197" t="s">
         <v>348</v>
       </c>
       <c r="B37" s="197" t="s">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>2621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
         <v>2622</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
         <v>2623</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>2624</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="194" t="s">
         <v>1409</v>
       </c>
       <c r="B41" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="194" t="s">
         <v>1409</v>
       </c>
       <c r="B42" t="s">
-        <v>2627</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="194" t="s">
         <v>1409</v>
       </c>
       <c r="B43" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>684</v>
       </c>
       <c r="B44" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2627</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>684</v>
       </c>
       <c r="B45" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>684</v>
       </c>
       <c r="B46" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>1149</v>
       </c>
       <c r="B47" t="s">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>1149</v>
       </c>
       <c r="B48" t="s">
-        <v>2633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2631</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>1149</v>
       </c>
       <c r="B49" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>1212</v>
       </c>
       <c r="B50" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2633</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>1212</v>
       </c>
       <c r="B51" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>1212</v>
       </c>
       <c r="B52" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
   </sheetData>
@@ -32912,14 +32947,14 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="20" style="19" customWidth="1"/>
     <col min="8" max="9" width="20" style="36" customWidth="1"/>
     <col min="10" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>212</v>
       </c>
@@ -32948,7 +32983,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>217</v>
       </c>
@@ -32977,7 +33012,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="23" t="s">
         <v>222</v>
       </c>
@@ -33006,7 +33041,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>2345</v>
       </c>
@@ -33035,7 +33070,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>229</v>
       </c>
@@ -33064,7 +33099,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
         <v>1430</v>
       </c>
@@ -33110,15 +33145,15 @@
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="7" width="20" style="41" customWidth="1"/>
     <col min="8" max="8" width="20" style="46" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" style="41" customWidth="1"/>
+    <col min="9" max="9" width="25.6640625" style="41" customWidth="1"/>
     <col min="10" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>212</v>
       </c>
@@ -33147,7 +33182,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>217</v>
       </c>
@@ -33176,7 +33211,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>222</v>
       </c>
@@ -33205,7 +33240,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>2345</v>
       </c>
@@ -33234,7 +33269,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>229</v>
       </c>
@@ -33263,7 +33298,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
         <v>2356</v>
       </c>
@@ -33307,13 +33342,13 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="8" width="20" style="41" customWidth="1"/>
     <col min="9" max="16384" width="9" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>212</v>
       </c>
@@ -33339,7 +33374,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
         <v>217</v>
       </c>
@@ -33365,7 +33400,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>222</v>
       </c>
@@ -33391,7 +33426,7 @@
         <v>2365</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>246</v>
       </c>
@@ -33417,7 +33452,7 @@
         <v>2366</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="27.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="45" t="s">
         <v>229</v>
       </c>
@@ -33443,7 +33478,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="136" t="s">
         <v>1430</v>
       </c>
@@ -33469,40 +33504,40 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="195"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="195"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
         <v>277</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="195"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="195"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="195"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="195"/>
     </row>
   </sheetData>
